--- a/Figures/deformations.xlsx
+++ b/Figures/deformations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Followers_CTL</t>
+          <t>Population_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Followers_KO</t>
+          <t>Population_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Leaders_CTL</t>
+          <t>Population_3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Leaders_KO</t>
+          <t>Population_4</t>
         </is>
       </c>
     </row>
@@ -460,267 +460,27 @@
         <v>0.9511816049994116</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7960877462876292</v>
+        <v>0.9492680845621957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7359668023560848</v>
+        <v>0.6910103162531606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8880368089112461</v>
+        <v>0.9536218751523573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9078413950182876</v>
+        <v>0.9626337415556478</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6818379504725701</v>
+        <v>0.9794775613584474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6688997062574504</v>
+        <v>0.7153960928739436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6807696651516811</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.033266680757633</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7863497346535563</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6910103162531606</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7056861362731262</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.7031605406410105</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9492680845621957</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7153960928739436</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.728040024868954</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.3257097751390805</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8553914905457616</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1726949859089573</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.022140118301518</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.9626337415556478</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.4741648179149623</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6233147566348923</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9536218751523573</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.005059925071486</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9794775613584474</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5953984398258411</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.217886770496506</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.7902131098443805</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.199595319237929</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8119708131673756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8743210805103966</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>1.054452518596378</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8137912529284071</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.08878919404795</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>0.7964159534235669</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.085687034981107</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.173728410501967</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>1.010239248096721</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7263215391083441</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>0.9572340929351459</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3257097751390805</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.2059522351364753</v>
-      </c>
-      <c r="D14" t="n">
         <v>0.9546146123576845</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>0.5235169644760483</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6487639302198469</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>0.665121438020034</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7063147922244927</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>0.7664506007414356</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9920216044441599</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>0.7248470501057523</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>0.6534580113034556</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>0.7812433332651439</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>1.012929644766872</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>0.7390686761084618</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.8264367883279946</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>1.027941362088423</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>1.108524608539698</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>0.715712782309918</v>
       </c>
     </row>
   </sheetData>
